--- a/RPA002/Data/Input/stockcode.xlsx
+++ b/RPA002/Data/Input/stockcode.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zzzhuh\Source\github\rpatutorial\RPA002\Data\Input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\rpatutorial\RPA002\Data\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2482AB1-FFFB-4494-A423-B4AA7DF907B4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12420"/>
+    <workbookView xWindow="3040" yWindow="3040" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>TSLA</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -55,13 +56,19 @@
   <si>
     <t>CODE</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AMD</t>
+  </si>
+  <si>
+    <t>NVDA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -400,53 +407,63 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:A10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A8"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1">
       <c r="A2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1">
       <c r="A3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:1" ht="15.5">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:1">
       <c r="A6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:1">
       <c r="A7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:1">
       <c r="A8" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
